--- a/Documentation/TriRapide.xlsx
+++ b/Documentation/TriRapide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PvsN" sheetId="4" r:id="rId1"/>
@@ -12146,31 +12146,77 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="126802944"/>
-        <c:axId val="51766016"/>
+        <c:axId val="85326848"/>
+        <c:axId val="93213440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126802944"/>
+        <c:axId val="85326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> de données à trier</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51766016"/>
+        <c:crossAx val="93213440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51766016"/>
+        <c:axId val="93213440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> d'instructions</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126802944"/>
+        <c:crossAx val="85326848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -24221,32 +24267,73 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="52400512"/>
-        <c:axId val="77564544"/>
+        <c:axId val="91714304"/>
+        <c:axId val="91715840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52400512"/>
+        <c:axId val="91714304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Rang</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> des nombres à trier</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77564544"/>
+        <c:crossAx val="91715840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77564544"/>
+        <c:axId val="91715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre d'instructions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52400512"/>
+        <c:crossAx val="91714304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -36297,31 +36384,79 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="110310912"/>
-        <c:axId val="112267264"/>
+        <c:axId val="93280128"/>
+        <c:axId val="93281664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110310912"/>
+        <c:axId val="93280128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Degré</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> de désordre</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112267264"/>
+        <c:crossAx val="93281664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112267264"/>
+        <c:axId val="93281664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> d'instruction</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110310912"/>
+        <c:crossAx val="93280128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -36341,7 +36476,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36352,7 +36487,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36363,7 +36498,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36742,7 +36877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
